--- a/testData_cucumber/UI/BAU_Regression/CommonDataSheet.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/CommonDataSheet.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8460"/>
+    <workbookView windowHeight="9372" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Common_TestData" sheetId="2" r:id="rId1"/>
+    <sheet name="Common_TestData" r:id="rId1" sheetId="2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,9 +27,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>C10920C</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -261,13 +258,17 @@
     <t>TaxID</t>
   </si>
   <si>
-    <t>Password%10</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,21 +302,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -332,10 +333,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -370,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -405,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -499,21 +500,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -530,7 +531,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -582,43 +583,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -626,319 +627,319 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
       <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>